--- a/flows/COMB_fund_flow_data.xlsx
+++ b/flows/COMB_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1702"/>
+  <dimension ref="A1:B1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17455,6 +17455,186 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1703">
+      <c r="A1703" t="inlineStr">
+        <is>
+          <t>2024-02-21</t>
+        </is>
+      </c>
+      <c r="B1703" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B1704" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B1705" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B1706" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B1707" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B1708" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B1709" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B1710" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B1711" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B1712" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B1713" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B1714" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B1715" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B1716" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B1717" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B1718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B1719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720" t="inlineStr">
+        <is>
+          <t>2024-03-15</t>
+        </is>
+      </c>
+      <c r="B1720" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
